--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\pigeons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6407A-DA3E-4322-ADC3-B017B9B059A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3877D1-DE73-40F5-A4EE-575B0777B472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="2490" windowWidth="17340" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Rachel</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>"Definitely at least 4"</t>
   </si>
 </sst>
 </file>
@@ -396,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,10 +433,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -428,8 +449,11 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -439,8 +463,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -450,8 +477,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -462,10 +492,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -476,10 +509,13 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -489,8 +525,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -501,10 +540,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -514,8 +556,11 @@
       <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -524,6 +569,26 @@
       </c>
       <c r="C10">
         <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
